--- a/times.xlsx
+++ b/times.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Сортировка</t>
   </si>
@@ -81,22 +81,7 @@
     <t>Слиянием</t>
   </si>
   <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
     <t>Подсчетом</t>
-  </si>
-  <si>
-    <t>0.02</t>
   </si>
 </sst>
 </file>
@@ -539,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -550,34 +535,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -619,24 +580,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -650,6 +593,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -667,6 +649,5817 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU">
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+              </a:rPr>
+              <a:t>Случайные</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0">
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+              </a:rPr>
+              <a:t> списки</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37567074610520951"/>
+          <c:y val="2.2408963585434174E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1375282272243126"/>
+          <c:y val="0.22427093672114515"/>
+          <c:w val="0.84204655691829244"/>
+          <c:h val="0.62760512078847286"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Выбором</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78E7-41BC-BE6C-C2C883868A43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>"Пузырьком"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>179.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>224.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-78E7-41BC-BE6C-C2C883868A43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставками</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.849999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-78E7-41BC-BE6C-C2C883868A43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Неквадртичные сортировки</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-78E7-41BC-BE6C-C2C883868A43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="607334096"/>
+        <c:axId val="607335080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="607334096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200">
+                    <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                  </a:rPr>
+                  <a:t>Кол-во элементов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45635575842686354"/>
+              <c:y val="0.91712678772296319"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607335080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="607335080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200">
+                    <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                  </a:rPr>
+                  <a:t>Время, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2282053662612572E-2"/>
+              <c:y val="0.46868766404199486"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607334096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU">
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+              </a:rPr>
+              <a:t>Реверсивные</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0">
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+              </a:rPr>
+              <a:t> списки</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37567074610520951"/>
+          <c:y val="2.2408963585434174E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1375282272243126"/>
+          <c:y val="0.22427093672114515"/>
+          <c:w val="0.84204655691829244"/>
+          <c:h val="0.62760512078847286"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Выбором</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C04A-42F9-8DE2-728403BF8AAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>"Пузырьком"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>158.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>198.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>247.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C04A-42F9-8DE2-728403BF8AAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставками</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C04A-42F9-8DE2-728403BF8AAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Неквадратичные сортировки</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C04A-42F9-8DE2-728403BF8AAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="607334096"/>
+        <c:axId val="607335080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="607334096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200">
+                    <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                  </a:rPr>
+                  <a:t>Кол-во элементов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45635575842686354"/>
+              <c:y val="0.91712678772296319"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607335080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="607335080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200">
+                    <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                  </a:rPr>
+                  <a:t>Время, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2282053662612572E-2"/>
+              <c:y val="0.46868766404199486"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607334096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU">
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+              </a:rPr>
+              <a:t>Случайные</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0">
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+              </a:rPr>
+              <a:t> списки</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37567074610520951"/>
+          <c:y val="2.2408963585434174E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1375282272243126"/>
+          <c:y val="0.22427093672114515"/>
+          <c:w val="0.84204655691829244"/>
+          <c:h val="0.62760512078847286"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Быстрая сортировка</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A13-40C0-AF11-74622C1445F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Слиянием</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A13-40C0-AF11-74622C1445F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Подсчетом</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A13-40C0-AF11-74622C1445F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="607334096"/>
+        <c:axId val="607335080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="607334096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200">
+                    <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                  </a:rPr>
+                  <a:t>Кол-во элементов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45635575842686354"/>
+              <c:y val="0.91712678772296319"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607335080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="607335080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200">
+                    <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                  </a:rPr>
+                  <a:t>Время, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2282053662612572E-2"/>
+              <c:y val="0.46868766404199486"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607334096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0">
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+              </a:rPr>
+              <a:t>Реверсивные списки</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37567074610520951"/>
+          <c:y val="2.2408963585434174E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1375282272243126"/>
+          <c:y val="0.22427093672114515"/>
+          <c:w val="0.84204655691829244"/>
+          <c:h val="0.62760512078847286"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Быстрая сортировка</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97A1-4D27-A8FC-8729467623B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Слиянием</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97A1-4D27-A8FC-8729467623B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Подсчетом</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97A1-4D27-A8FC-8729467623B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="607334096"/>
+        <c:axId val="607335080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="607334096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200">
+                    <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                  </a:rPr>
+                  <a:t>Кол-во элементов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45635575842686354"/>
+              <c:y val="0.91712678772296319"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607335080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="607335080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200">
+                    <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                  </a:rPr>
+                  <a:t>Время, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2282053662612572E-2"/>
+              <c:y val="0.46868766404199486"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607334096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Avenir Next Cyr" panose="020B0503020202020204" pitchFamily="34" charset="-52"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>104049</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>253728</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>260931</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104049</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -938,8 +6731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH24" sqref="AH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -951,501 +6744,501 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="24">
+      <c r="A2" s="35"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="16">
         <v>5000</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="8">
         <v>10000</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="8">
         <v>15000</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="8">
         <v>20000</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="8">
         <v>25000</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="8">
         <v>30000</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="8">
         <v>35000</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="8">
         <v>40000</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="8">
         <v>45000</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="9">
         <v>50000</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="17">
         <v>0.5</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="6">
         <v>2.04</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="6">
         <v>4.67</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="6">
         <v>8.64</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="6">
         <v>13.14</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="6">
         <v>19.440000000000001</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="6">
         <v>26.14</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="6">
         <v>34.159999999999997</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="6">
         <v>44.01</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="7">
         <v>53.4</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="18">
         <v>0.51</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="10">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="10">
         <v>4.58</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="10">
         <v>8.27</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="10">
         <v>12.95</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="10">
         <v>18.510000000000002</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="10">
         <v>25.12</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="10">
         <v>32.880000000000003</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="10">
         <v>41.54</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="11">
         <v>51.23</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="24">
         <v>2.06</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="12">
         <v>8.24</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="12">
         <v>18.440000000000001</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="12">
         <v>33.450000000000003</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="12">
         <v>58.81</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="12">
         <v>78.239999999999995</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="12">
         <v>107.23</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="12">
         <v>140.82</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="12">
         <v>179.66</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="13">
         <v>224.92</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="25">
         <v>2.87</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="14">
         <v>10.130000000000001</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="14">
         <v>22.81</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="14">
         <v>40.21</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="14">
         <v>62.17</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="14">
         <v>90.39</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="14">
         <v>122.36</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="14">
         <v>158.44999999999999</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="14">
         <v>198.97</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="15">
         <v>247.21</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="24">
         <v>0.77</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="12">
         <v>3</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="12">
         <v>6.88</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="12">
         <v>13.03</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="12">
         <v>19.510000000000002</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="12">
         <v>27.79</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="12">
         <v>38.19</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="12">
         <v>50</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="12">
         <v>64.91</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="13">
         <v>80.849999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="25">
         <v>1.47</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="14">
         <v>5.99</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="14">
         <v>13.57</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="14">
         <v>24.26</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="14">
         <v>38.409999999999997</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="14">
         <v>55.43</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="14">
         <v>76.11</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="14">
         <v>99.59</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="14">
         <v>125.58</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="15">
         <v>156.29</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="24">
         <v>0.01</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="12">
         <v>0.02</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="12">
         <v>0.04</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="12">
         <v>0.05</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="12">
         <v>0.09</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="12">
         <v>0.1</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="12">
         <v>0.12</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="13">
         <v>0.13</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="25">
         <v>0.01</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="14">
         <v>0.02</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="14">
         <v>0.03</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="14">
         <v>0.04</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="14">
         <v>0.06</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="14">
         <v>0.08</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="14">
         <v>0.09</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="14">
         <v>0.1</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="15">
         <v>0.12</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>12</v>
+      <c r="C11" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="K11" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0.06</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>12</v>
+      <c r="C12" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0.06</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>15</v>
+      <c r="C13" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="L13" s="13">
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>10</v>
+      <c r="C14" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1488,5 +7281,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>